--- a/db/ZZZ.xlsx
+++ b/db/ZZZ.xlsx
@@ -171,15 +171,6 @@
     <t>COMPANIES</t>
   </si>
   <si>
-    <t>GOOD_GROUPS</t>
-  </si>
-  <si>
-    <t>GOOD_STOCKS</t>
-  </si>
-  <si>
-    <t>GOODS</t>
-  </si>
-  <si>
     <t>PERMISSIONS</t>
   </si>
   <si>
@@ -192,9 +183,6 @@
     <t>USERS</t>
   </si>
   <si>
-    <t>SET GLOBAL sql_mode='NO_AUTO_VALUE_ON_ZERO';</t>
-  </si>
-  <si>
     <t>DELETED</t>
   </si>
   <si>
@@ -208,6 +196,18 @@
   </si>
   <si>
     <t>2014-01-01 22:08:37</t>
+  </si>
+  <si>
+    <t>ITEM_GROUPS</t>
+  </si>
+  <si>
+    <t>ITEM_STOCKS</t>
+  </si>
+  <si>
+    <t>ITEMS</t>
+  </si>
+  <si>
+    <t>SET sql_mode='NO_AUTO_VALUE_ON_ZERO';</t>
   </si>
 </sst>
 </file>
@@ -569,9 +569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G45"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="15"/>
   <cols>
@@ -589,16 +587,16 @@
         <v>44</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>45</v>
@@ -621,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>0</v>
@@ -648,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>1</v>
@@ -675,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>2</v>
@@ -702,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>3</v>
@@ -729,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>4</v>
@@ -756,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>5</v>
@@ -783,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>6</v>
@@ -810,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>7</v>
@@ -837,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>8</v>
@@ -864,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>9</v>
@@ -891,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>10</v>
@@ -918,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>11</v>
@@ -945,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>12</v>
@@ -972,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>13</v>
@@ -999,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>14</v>
@@ -1026,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>15</v>
@@ -1053,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>16</v>
@@ -1080,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>17</v>
@@ -1107,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>18</v>
@@ -1134,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>19</v>
@@ -1161,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>20</v>
@@ -1188,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>21</v>
@@ -1215,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>22</v>
@@ -1242,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>23</v>
@@ -1269,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>24</v>
@@ -1296,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>25</v>
@@ -1323,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>26</v>
@@ -1350,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>27</v>
@@ -1377,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>28</v>
@@ -1404,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>29</v>
@@ -1431,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>30</v>
@@ -1458,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>31</v>
@@ -1485,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>32</v>
@@ -1512,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>33</v>
@@ -1539,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>34</v>
@@ -1566,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>35</v>
@@ -1593,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>36</v>
@@ -1620,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>37</v>
@@ -1647,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>38</v>
@@ -1674,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>39</v>
@@ -1701,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>40</v>
@@ -1728,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>41</v>
@@ -1755,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>42</v>
@@ -1782,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>43</v>
@@ -1819,7 +1817,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1866,34 +1864,34 @@
     </row>
     <row r="5" spans="1:2" ht="15.75">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ALTER TABLE GOOD_GROUPS AUTO_INCREMENT = 0;</v>
+        <v>ALTER TABLE ITEM_GROUPS AUTO_INCREMENT = 0;</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ALTER TABLE GOOD_STOCKS AUTO_INCREMENT = 0;</v>
+        <v>ALTER TABLE ITEM_STOCKS AUTO_INCREMENT = 0;</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ALTER TABLE GOODS AUTO_INCREMENT = 0;</v>
+        <v>ALTER TABLE ITEMS AUTO_INCREMENT = 0;</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1902,7 +1900,7 @@
     </row>
     <row r="9" spans="1:2" ht="15.75">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1911,7 +1909,7 @@
     </row>
     <row r="10" spans="1:2" ht="15.75">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1920,7 +1918,7 @@
     </row>
     <row r="11" spans="1:2" ht="15.75">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1929,7 +1927,7 @@
     </row>
     <row r="16" spans="1:2" ht="15.75">
       <c r="B16" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/db/ZZZ.xlsx
+++ b/db/ZZZ.xlsx
@@ -1816,9 +1816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
